--- a/storage/excel/sum82.xlsx
+++ b/storage/excel/sum82.xlsx
@@ -699,7 +699,7 @@
     <col min="27" max="27" width="6.75" customWidth="true" style="0"/>
     <col min="28" max="28" width="6.75" customWidth="true" style="0"/>
     <col min="30" max="30" width="21.875" customWidth="true" style="0"/>
-    <col min="31" max="31" width="6.75" customWidth="true" style="0"/>
+    <col min="31" max="31" width="11.375" customWidth="true" style="0"/>
     <col min="32" max="32" width="6.75" customWidth="true" style="0"/>
     <col min="33" max="33" width="6.75" customWidth="true" style="0"/>
     <col min="34" max="34" width="6.75" customWidth="true" style="0"/>
@@ -1580,22 +1580,22 @@
         <v>22</v>
       </c>
       <c r="C11" s="31">
-        <v>834257</v>
+        <v>795355.94683978</v>
       </c>
       <c r="D11" s="31">
-        <v>59.01</v>
+        <v>56.25764420903</v>
       </c>
       <c r="E11" s="31">
-        <v>1835573</v>
+        <v>1878674.8043088</v>
       </c>
       <c r="F11" s="31">
-        <v>60.12</v>
+        <v>61.529262058461</v>
       </c>
       <c r="G11" s="31">
-        <v>2660743.7500081</v>
+        <v>2669435.804914</v>
       </c>
       <c r="H11" s="31">
-        <v>59.56</v>
+        <v>59.757998461052</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1608,22 +1608,22 @@
         <v>23</v>
       </c>
       <c r="Q11" s="31">
-        <v>306106</v>
+        <v>291463.98025634</v>
       </c>
       <c r="R11" s="31">
-        <v>21.65</v>
+        <v>20.616023512693</v>
       </c>
       <c r="S11" s="31">
-        <v>431054</v>
+        <v>441112.83481053</v>
       </c>
       <c r="T11" s="31">
-        <v>14.12</v>
+        <v>14.447070428665</v>
       </c>
       <c r="U11" s="31">
-        <v>798921.57574551</v>
+        <v>737953.91343677</v>
       </c>
       <c r="V11" s="31">
-        <v>17.88</v>
+        <v>16.519838664898</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1654,22 +1654,22 @@
         <v>14</v>
       </c>
       <c r="AS11" s="31">
-        <v>3.5472809734513</v>
+        <v>3.5430707769391</v>
       </c>
       <c r="AT11" s="31">
-        <v>0.0010858998333827</v>
+        <v>0.0010649672989661</v>
       </c>
       <c r="AU11" s="31">
-        <v>3.75780220739</v>
+        <v>3.7607598307377</v>
       </c>
       <c r="AV11" s="31">
-        <v>0.00025989633223281</v>
+        <v>0.00026153348006447</v>
       </c>
       <c r="AW11" s="31">
-        <v>3.6525415904206</v>
+        <v>3.6519153038384</v>
       </c>
       <c r="AX11" s="31">
-        <v>0.00067289808280778</v>
+        <v>0.0006632503895153</v>
       </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -1692,22 +1692,22 @@
         <v>26</v>
       </c>
       <c r="C12" s="31">
-        <v>834257</v>
+        <v>616730.81192665</v>
       </c>
       <c r="D12" s="31">
-        <v>59.01</v>
+        <v>43.623012725276</v>
       </c>
       <c r="E12" s="31">
-        <v>1835573</v>
+        <v>1158085.2684884</v>
       </c>
       <c r="F12" s="31">
-        <v>60.12</v>
+        <v>37.928933633133</v>
       </c>
       <c r="G12" s="31">
-        <v>2660743.7500081</v>
+        <v>1779779.2602265</v>
       </c>
       <c r="H12" s="31">
-        <v>59.56</v>
+        <v>39.842144208093</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1720,22 +1720,22 @@
         <v>27</v>
       </c>
       <c r="Q12" s="31">
-        <v>874665</v>
+        <v>834152.8240883</v>
       </c>
       <c r="R12" s="31">
-        <v>61.87</v>
+        <v>59.001850655642</v>
       </c>
       <c r="S12" s="31">
-        <v>2137312</v>
+        <v>2187557.1142037</v>
       </c>
       <c r="T12" s="31">
-        <v>70</v>
+        <v>71.645595415972</v>
       </c>
       <c r="U12" s="31">
-        <v>2945308.7340636</v>
+        <v>3010689.1607931</v>
       </c>
       <c r="V12" s="31">
-        <v>65.93</v>
+        <v>67.397297176501</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1766,22 +1766,22 @@
         <v>29</v>
       </c>
       <c r="AS12" s="31">
-        <v>1.8637090163934</v>
+        <v>1.8617510245902</v>
       </c>
       <c r="AT12" s="31">
-        <v>0.00038957644982419</v>
+        <v>0.00038206255500986</v>
       </c>
       <c r="AU12" s="31">
-        <v>1.9376158736669</v>
+        <v>1.938270828548</v>
       </c>
       <c r="AV12" s="31">
-        <v>0.00011945132044901</v>
+        <v>0.00011869417183102</v>
       </c>
       <c r="AW12" s="31">
-        <v>1.9006624450302</v>
+        <v>1.9000109265691</v>
       </c>
       <c r="AX12" s="31">
-        <v>0.0002545138851366</v>
+        <v>0.00025037836342044</v>
       </c>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
@@ -1820,22 +1820,22 @@
         <v>30</v>
       </c>
       <c r="Q13" s="31">
-        <v>199572</v>
+        <v>190439.04725608</v>
       </c>
       <c r="R13" s="31">
-        <v>14.12</v>
+        <v>13.470260965054</v>
       </c>
       <c r="S13" s="31">
-        <v>314310</v>
+        <v>321704.80942759</v>
       </c>
       <c r="T13" s="31">
-        <v>10.29</v>
+        <v>10.536288387612</v>
       </c>
       <c r="U13" s="31">
-        <v>545214.72011301</v>
+        <v>514701.22078559</v>
       </c>
       <c r="V13" s="31">
-        <v>12.21</v>
+        <v>11.522103173632</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1866,22 +1866,22 @@
         <v>32</v>
       </c>
       <c r="AS13" s="31">
-        <v>2.014594179725</v>
+        <v>2.0131720925274</v>
       </c>
       <c r="AT13" s="31">
-        <v>0.00060652074169669</v>
+        <v>0.00059482582292252</v>
       </c>
       <c r="AU13" s="31">
-        <v>1.9629666448189</v>
+        <v>1.9635681418366</v>
       </c>
       <c r="AV13" s="31">
-        <v>9.5570847603361E-5</v>
+        <v>9.6621997888343E-5</v>
       </c>
       <c r="AW13" s="31">
-        <v>1.9887804122719</v>
+        <v>1.988370117182</v>
       </c>
       <c r="AX13" s="31">
-        <v>0.00035104579465003</v>
+        <v>0.00034572391040543</v>
       </c>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
@@ -1918,22 +1918,22 @@
         <v>33</v>
       </c>
       <c r="Q14" s="31">
-        <v>77915</v>
+        <v>74119.337084594</v>
       </c>
       <c r="R14" s="31">
-        <v>5.51</v>
+        <v>5.2426580970222</v>
       </c>
       <c r="S14" s="31">
-        <v>64658</v>
+        <v>66171.708810816</v>
       </c>
       <c r="T14" s="31">
-        <v>2.12</v>
+        <v>2.1672172336259</v>
       </c>
       <c r="U14" s="31">
-        <v>170391.66172938</v>
+        <v>142971.71923302</v>
       </c>
       <c r="V14" s="31">
-        <v>3.81</v>
+        <v>3.200565363727</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -1964,22 +1964,22 @@
         <v>35</v>
       </c>
       <c r="AS14" s="31">
-        <v>2.1004557350888</v>
+        <v>2.0994360921604</v>
       </c>
       <c r="AT14" s="31">
-        <v>0.0002297940673586</v>
+        <v>0.00022877207518962</v>
       </c>
       <c r="AU14" s="31">
-        <v>2.1460359132481</v>
+        <v>2.1473885363601</v>
       </c>
       <c r="AV14" s="31">
-        <v>0.00010350689404596</v>
+        <v>0.00010474082087132</v>
       </c>
       <c r="AW14" s="31">
-        <v>2.1232458241684</v>
+        <v>2.1234123142602</v>
       </c>
       <c r="AX14" s="31">
-        <v>0.00016665048070228</v>
+        <v>0.00016675644803047</v>
       </c>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
@@ -2016,22 +2016,22 @@
         <v>36</v>
       </c>
       <c r="Q15" s="31">
-        <v>21169</v>
+        <v>20227.552555442</v>
       </c>
       <c r="R15" s="31">
-        <v>1.5</v>
+        <v>1.4307486596473</v>
       </c>
       <c r="S15" s="31">
-        <v>30533</v>
+        <v>31242.861491666</v>
       </c>
       <c r="T15" s="31">
-        <v>1</v>
+        <v>1.0232479872344</v>
       </c>
       <c r="U15" s="31">
-        <v>55779.02272468</v>
+        <v>51825.607411609</v>
       </c>
       <c r="V15" s="31">
-        <v>1.25</v>
+        <v>1.1601682131651</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -2062,22 +2062,22 @@
         <v>29</v>
       </c>
       <c r="AS15" s="31">
-        <v>1.3034230534792</v>
+        <v>1.3031936736069</v>
       </c>
       <c r="AT15" s="31">
-        <v>0.00025890467469926</v>
+        <v>0.00025449790277864</v>
       </c>
       <c r="AU15" s="31">
-        <v>1.3158044246575</v>
+        <v>1.3160434010142</v>
       </c>
       <c r="AV15" s="31">
-        <v>5.7713828590902E-5</v>
+        <v>5.8239667180645E-5</v>
       </c>
       <c r="AW15" s="31">
-        <v>1.3096137390683</v>
+        <v>1.3096185373105</v>
       </c>
       <c r="AX15" s="31">
-        <v>0.00015830925164508</v>
+        <v>0.00015636878497964</v>
       </c>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
@@ -2148,22 +2148,22 @@
         <v>32</v>
       </c>
       <c r="AS16" s="31">
-        <v>1.3347963309396</v>
+        <v>1.3343754450546</v>
       </c>
       <c r="AT16" s="31">
-        <v>0.00052870596631441</v>
+        <v>0.00052152709891325</v>
       </c>
       <c r="AU16" s="31">
-        <v>1.2637726347154</v>
+        <v>1.264056810097</v>
       </c>
       <c r="AV16" s="31">
-        <v>4.2638332333986E-5</v>
+        <v>4.288380860253E-5</v>
       </c>
       <c r="AW16" s="31">
-        <v>1.2992844828275</v>
+        <v>1.2992161275758</v>
       </c>
       <c r="AX16" s="31">
-        <v>0.0002856721493242</v>
+        <v>0.00028220545375789</v>
       </c>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>

--- a/storage/excel/sum82.xlsx
+++ b/storage/excel/sum82.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>บทที่ 8 ข้อมูลด้านสังคมและเศรษฐกิจ</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>น้อยกว่า 20 ปี</t>
-  </si>
-  <si>
-    <t>no_ti37_te38</t>
   </si>
   <si>
     <t>หญิง</t>
@@ -268,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -316,9 +313,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -699,7 +693,7 @@
     <col min="27" max="27" width="6.75" customWidth="true" style="0"/>
     <col min="28" max="28" width="6.75" customWidth="true" style="0"/>
     <col min="30" max="30" width="21.875" customWidth="true" style="0"/>
-    <col min="31" max="31" width="6.75" customWidth="true" style="0"/>
+    <col min="31" max="31" width="11.375" customWidth="true" style="0"/>
     <col min="32" max="32" width="6.75" customWidth="true" style="0"/>
     <col min="33" max="33" width="6.75" customWidth="true" style="0"/>
     <col min="34" max="34" width="6.75" customWidth="true" style="0"/>
@@ -1062,69 +1056,69 @@
     </row>
     <row r="6" spans="1:64">
       <c r="A6" s="9"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="3"/>
-      <c r="AD6" s="24" t="s">
+      <c r="AD6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="24" t="s">
+      <c r="AR6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="24"/>
-      <c r="AX6" s="24"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="24"/>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="24"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
@@ -1136,69 +1130,69 @@
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="9"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="17" t="s">
+      <c r="AD7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="17" t="s">
+      <c r="AR7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
@@ -1210,85 +1204,85 @@
     </row>
     <row r="8" spans="1:64">
       <c r="A8" s="9"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="20" t="s">
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AE8" s="21" t="s">
+      <c r="AE8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="20" t="s">
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="25" t="s">
+      <c r="AR8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AS8" s="28" t="s">
+      <c r="AS8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="29"/>
-      <c r="AV8" s="29"/>
-      <c r="AW8" s="29"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="27" t="s">
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="27"/>
-      <c r="BD8" s="27"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="26"/>
+      <c r="BD8" s="26"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
@@ -1300,109 +1294,109 @@
     </row>
     <row r="9" spans="1:64">
       <c r="A9" s="9"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="20"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="21" t="s">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="21" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="21" t="s">
+      <c r="T9" s="21"/>
+      <c r="U9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="23"/>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="22"/>
+      <c r="W9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AB9" s="20"/>
+      <c r="AB9" s="19"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="21" t="s">
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="21" t="s">
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="21" t="s">
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20" t="s">
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20" t="s">
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AP9" s="20"/>
+      <c r="AP9" s="19"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="28" t="s">
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="28" t="s">
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="28" t="s">
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="27" t="s">
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27" t="s">
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="27" t="s">
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="BD9" s="27"/>
+      <c r="BD9" s="26"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
       <c r="BG9" s="1"/>
@@ -1414,7 +1408,7 @@
     </row>
     <row r="10" spans="1:64">
       <c r="A10" s="9"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
@@ -1452,7 +1446,7 @@
         <v>19</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="19"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="10" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1484,7 @@
         <v>19</v>
       </c>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="19"/>
+      <c r="AD10" s="18"/>
       <c r="AE10" s="10" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1522,7 @@
         <v>19</v>
       </c>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="26"/>
+      <c r="AR10" s="25"/>
       <c r="AS10" s="14" t="s">
         <v>20</v>
       </c>
@@ -1579,23 +1573,23 @@
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="31">
-        <v>834257</v>
-      </c>
-      <c r="D11" s="31">
-        <v>59.01</v>
-      </c>
-      <c r="E11" s="31">
-        <v>1835573</v>
-      </c>
-      <c r="F11" s="31">
-        <v>60.12</v>
-      </c>
-      <c r="G11" s="31">
-        <v>2660743.7500081</v>
-      </c>
-      <c r="H11" s="31">
-        <v>59.56</v>
+      <c r="C11" s="30">
+        <v>795355.94683978</v>
+      </c>
+      <c r="D11" s="30">
+        <v>56.25764420903</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1878674.8043088</v>
+      </c>
+      <c r="F11" s="30">
+        <v>61.529262058461</v>
+      </c>
+      <c r="G11" s="30">
+        <v>2669435.804914</v>
+      </c>
+      <c r="H11" s="30">
+        <v>59.757998461052</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1607,23 +1601,23 @@
       <c r="P11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="31">
-        <v>306106</v>
-      </c>
-      <c r="R11" s="31">
-        <v>21.65</v>
-      </c>
-      <c r="S11" s="31">
-        <v>431054</v>
-      </c>
-      <c r="T11" s="31">
-        <v>14.12</v>
-      </c>
-      <c r="U11" s="31">
-        <v>798921.57574551</v>
-      </c>
-      <c r="V11" s="31">
-        <v>17.88</v>
+      <c r="Q11" s="30">
+        <v>291463.98025634</v>
+      </c>
+      <c r="R11" s="30">
+        <v>20.616023512693</v>
+      </c>
+      <c r="S11" s="30">
+        <v>441112.83481053</v>
+      </c>
+      <c r="T11" s="30">
+        <v>14.447070428665</v>
+      </c>
+      <c r="U11" s="30">
+        <v>737953.91343677</v>
+      </c>
+      <c r="V11" s="30">
+        <v>16.519838664898</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1635,14 +1629,24 @@
       <c r="AD11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AE11" s="30">
+        <v>58976.074185272</v>
+      </c>
+      <c r="AF11" s="30">
+        <v>4.1715347845746</v>
+      </c>
+      <c r="AG11" s="30">
+        <v>49634.521915195</v>
+      </c>
+      <c r="AH11" s="30">
+        <v>1.6256009284108</v>
+      </c>
+      <c r="AI11" s="30">
+        <v>110829.73062806</v>
+      </c>
+      <c r="AJ11" s="30">
+        <v>2.4810347040819</v>
+      </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
@@ -1653,23 +1657,23 @@
       <c r="AR11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AS11" s="31">
-        <v>3.5472809734513</v>
-      </c>
-      <c r="AT11" s="31">
-        <v>0.0010858998333827</v>
-      </c>
-      <c r="AU11" s="31">
-        <v>3.75780220739</v>
-      </c>
-      <c r="AV11" s="31">
-        <v>0.00025989633223281</v>
-      </c>
-      <c r="AW11" s="31">
-        <v>3.6525415904206</v>
-      </c>
-      <c r="AX11" s="31">
-        <v>0.00067289808280778</v>
+      <c r="AS11" s="30">
+        <v>3.5430707769391</v>
+      </c>
+      <c r="AT11" s="30">
+        <v>0.0010649672989661</v>
+      </c>
+      <c r="AU11" s="30">
+        <v>3.7607598307377</v>
+      </c>
+      <c r="AV11" s="30">
+        <v>0.00026153348006447</v>
+      </c>
+      <c r="AW11" s="30">
+        <v>3.6519153038384</v>
+      </c>
+      <c r="AX11" s="30">
+        <v>0.0006632503895153</v>
       </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -1689,25 +1693,25 @@
     <row r="12" spans="1:64">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="31">
-        <v>834257</v>
-      </c>
-      <c r="D12" s="31">
-        <v>59.01</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1835573</v>
-      </c>
-      <c r="F12" s="31">
-        <v>60.12</v>
-      </c>
-      <c r="G12" s="31">
-        <v>2660743.7500081</v>
-      </c>
-      <c r="H12" s="31">
-        <v>59.56</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="30">
+        <v>616730.81192665</v>
+      </c>
+      <c r="D12" s="30">
+        <v>43.623012725276</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1158085.2684884</v>
+      </c>
+      <c r="F12" s="30">
+        <v>37.928933633133</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1779779.2602265</v>
+      </c>
+      <c r="H12" s="30">
+        <v>39.842144208093</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1717,25 +1721,25 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
       <c r="P12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="31">
-        <v>874665</v>
-      </c>
-      <c r="R12" s="31">
-        <v>61.87</v>
-      </c>
-      <c r="S12" s="31">
-        <v>2137312</v>
-      </c>
-      <c r="T12" s="31">
-        <v>70</v>
-      </c>
-      <c r="U12" s="31">
-        <v>2945308.7340636</v>
-      </c>
-      <c r="V12" s="31">
-        <v>65.93</v>
+        <v>26</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>834152.8240883</v>
+      </c>
+      <c r="R12" s="30">
+        <v>59.001850655642</v>
+      </c>
+      <c r="S12" s="30">
+        <v>2187557.1142037</v>
+      </c>
+      <c r="T12" s="30">
+        <v>71.645595415972</v>
+      </c>
+      <c r="U12" s="30">
+        <v>3010689.1607931</v>
+      </c>
+      <c r="V12" s="30">
+        <v>67.397297176501</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1745,16 +1749,26 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="AE12" s="30">
+        <v>74135.455624159</v>
+      </c>
+      <c r="AF12" s="30">
+        <v>5.2437982042504</v>
+      </c>
+      <c r="AG12" s="30">
+        <v>147039.52503921</v>
+      </c>
+      <c r="AH12" s="30">
+        <v>4.8157528106187</v>
+      </c>
+      <c r="AI12" s="30">
+        <v>221548.08160237</v>
+      </c>
+      <c r="AJ12" s="30">
+        <v>4.9595760628789</v>
+      </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -1763,25 +1777,25 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS12" s="31">
-        <v>1.8637090163934</v>
-      </c>
-      <c r="AT12" s="31">
-        <v>0.00038957644982419</v>
-      </c>
-      <c r="AU12" s="31">
-        <v>1.9376158736669</v>
-      </c>
-      <c r="AV12" s="31">
-        <v>0.00011945132044901</v>
-      </c>
-      <c r="AW12" s="31">
-        <v>1.9006624450302</v>
-      </c>
-      <c r="AX12" s="31">
-        <v>0.0002545138851366</v>
+        <v>28</v>
+      </c>
+      <c r="AS12" s="30">
+        <v>1.8617510245902</v>
+      </c>
+      <c r="AT12" s="30">
+        <v>0.00038206255500986</v>
+      </c>
+      <c r="AU12" s="30">
+        <v>1.938270828548</v>
+      </c>
+      <c r="AV12" s="30">
+        <v>0.00011869417183102</v>
+      </c>
+      <c r="AW12" s="30">
+        <v>1.9000109265691</v>
+      </c>
+      <c r="AX12" s="30">
+        <v>0.00025037836342044</v>
       </c>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
@@ -1817,25 +1831,25 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
       <c r="P13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>199572</v>
-      </c>
-      <c r="R13" s="31">
-        <v>14.12</v>
-      </c>
-      <c r="S13" s="31">
-        <v>314310</v>
-      </c>
-      <c r="T13" s="31">
-        <v>10.29</v>
-      </c>
-      <c r="U13" s="31">
-        <v>545214.72011301</v>
-      </c>
-      <c r="V13" s="31">
-        <v>12.21</v>
+        <v>29</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>190439.04725608</v>
+      </c>
+      <c r="R13" s="30">
+        <v>13.470260965054</v>
+      </c>
+      <c r="S13" s="30">
+        <v>321704.80942759</v>
+      </c>
+      <c r="T13" s="30">
+        <v>10.536288387612</v>
+      </c>
+      <c r="U13" s="30">
+        <v>514701.22078559</v>
+      </c>
+      <c r="V13" s="30">
+        <v>11.522103173632</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1845,16 +1859,26 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="AE13" s="30">
+        <v>146573.998891</v>
+      </c>
+      <c r="AF13" s="30">
+        <v>10.36756927847</v>
+      </c>
+      <c r="AG13" s="30">
+        <v>413571.26663191</v>
+      </c>
+      <c r="AH13" s="30">
+        <v>13.545045042431</v>
+      </c>
+      <c r="AI13" s="30">
+        <v>557375.65461518</v>
+      </c>
+      <c r="AJ13" s="30">
+        <v>12.47741318574</v>
+      </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
@@ -1863,25 +1887,25 @@
       <c r="AP13" s="2"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS13" s="31">
-        <v>2.014594179725</v>
-      </c>
-      <c r="AT13" s="31">
-        <v>0.00060652074169669</v>
-      </c>
-      <c r="AU13" s="31">
-        <v>1.9629666448189</v>
-      </c>
-      <c r="AV13" s="31">
-        <v>9.5570847603361E-5</v>
-      </c>
-      <c r="AW13" s="31">
-        <v>1.9887804122719</v>
-      </c>
-      <c r="AX13" s="31">
-        <v>0.00035104579465003</v>
+        <v>31</v>
+      </c>
+      <c r="AS13" s="30">
+        <v>2.0131720925274</v>
+      </c>
+      <c r="AT13" s="30">
+        <v>0.00059482582292252</v>
+      </c>
+      <c r="AU13" s="30">
+        <v>1.9635681418366</v>
+      </c>
+      <c r="AV13" s="30">
+        <v>9.6621997888343E-5</v>
+      </c>
+      <c r="AW13" s="30">
+        <v>1.988370117182</v>
+      </c>
+      <c r="AX13" s="30">
+        <v>0.00034572391040543</v>
       </c>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
@@ -1915,25 +1939,25 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>77915</v>
-      </c>
-      <c r="R14" s="31">
-        <v>5.51</v>
-      </c>
-      <c r="S14" s="31">
-        <v>64658</v>
-      </c>
-      <c r="T14" s="31">
-        <v>2.12</v>
-      </c>
-      <c r="U14" s="31">
-        <v>170391.66172938</v>
-      </c>
-      <c r="V14" s="31">
-        <v>3.81</v>
+        <v>32</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>74119.337084594</v>
+      </c>
+      <c r="R14" s="30">
+        <v>5.2426580970222</v>
+      </c>
+      <c r="S14" s="30">
+        <v>66171.708810816</v>
+      </c>
+      <c r="T14" s="30">
+        <v>2.1672172336259</v>
+      </c>
+      <c r="U14" s="30">
+        <v>142971.71923302</v>
+      </c>
+      <c r="V14" s="30">
+        <v>3.200565363727</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -1943,16 +1967,26 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="AE14" s="30">
+        <v>271304.12556707</v>
+      </c>
+      <c r="AF14" s="30">
+        <v>19.190063303404</v>
+      </c>
+      <c r="AG14" s="30">
+        <v>705916.38963116</v>
+      </c>
+      <c r="AH14" s="30">
+        <v>23.119762094727</v>
+      </c>
+      <c r="AI14" s="30">
+        <v>973795.23757378</v>
+      </c>
+      <c r="AJ14" s="30">
+        <v>21.799383300842</v>
+      </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -1961,25 +1995,25 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS14" s="31">
-        <v>2.1004557350888</v>
-      </c>
-      <c r="AT14" s="31">
-        <v>0.0002297940673586</v>
-      </c>
-      <c r="AU14" s="31">
-        <v>2.1460359132481</v>
-      </c>
-      <c r="AV14" s="31">
-        <v>0.00010350689404596</v>
-      </c>
-      <c r="AW14" s="31">
-        <v>2.1232458241684</v>
-      </c>
-      <c r="AX14" s="31">
-        <v>0.00016665048070228</v>
+        <v>34</v>
+      </c>
+      <c r="AS14" s="30">
+        <v>2.0994360921604</v>
+      </c>
+      <c r="AT14" s="30">
+        <v>0.00022877207518962</v>
+      </c>
+      <c r="AU14" s="30">
+        <v>2.1473885363601</v>
+      </c>
+      <c r="AV14" s="30">
+        <v>0.00010474082087132</v>
+      </c>
+      <c r="AW14" s="30">
+        <v>2.1234123142602</v>
+      </c>
+      <c r="AX14" s="30">
+        <v>0.00016675644803047</v>
       </c>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
@@ -2013,25 +2047,25 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>21169</v>
-      </c>
-      <c r="R15" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="S15" s="31">
-        <v>30533</v>
-      </c>
-      <c r="T15" s="31">
-        <v>1</v>
-      </c>
-      <c r="U15" s="31">
-        <v>55779.02272468</v>
-      </c>
-      <c r="V15" s="31">
-        <v>1.25</v>
+        <v>35</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>20227.552555442</v>
+      </c>
+      <c r="R15" s="30">
+        <v>1.4307486596473</v>
+      </c>
+      <c r="S15" s="30">
+        <v>31242.861491666</v>
+      </c>
+      <c r="T15" s="30">
+        <v>1.0232479872344</v>
+      </c>
+      <c r="U15" s="30">
+        <v>51825.607411609</v>
+      </c>
+      <c r="V15" s="30">
+        <v>1.1601682131651</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -2041,16 +2075,26 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AE15" s="30">
+        <v>404425.32650024</v>
+      </c>
+      <c r="AF15" s="30">
+        <v>28.606080356566</v>
+      </c>
+      <c r="AG15" s="30">
+        <v>909977.71572608</v>
+      </c>
+      <c r="AH15" s="30">
+        <v>29.803059693915</v>
+      </c>
+      <c r="AI15" s="30">
+        <v>1313359.7086889</v>
+      </c>
+      <c r="AJ15" s="30">
+        <v>29.400874636565</v>
+      </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -2059,25 +2103,25 @@
       <c r="AP15" s="2"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS15" s="31">
-        <v>1.3034230534792</v>
-      </c>
-      <c r="AT15" s="31">
-        <v>0.00025890467469926</v>
-      </c>
-      <c r="AU15" s="31">
-        <v>1.3158044246575</v>
-      </c>
-      <c r="AV15" s="31">
-        <v>5.7713828590902E-5</v>
-      </c>
-      <c r="AW15" s="31">
-        <v>1.3096137390683</v>
-      </c>
-      <c r="AX15" s="31">
-        <v>0.00015830925164508</v>
+        <v>28</v>
+      </c>
+      <c r="AS15" s="30">
+        <v>1.3031936736069</v>
+      </c>
+      <c r="AT15" s="30">
+        <v>0.00025449790277864</v>
+      </c>
+      <c r="AU15" s="30">
+        <v>1.3160434010142</v>
+      </c>
+      <c r="AV15" s="30">
+        <v>5.8239667180645E-5</v>
+      </c>
+      <c r="AW15" s="30">
+        <v>1.3096185373105</v>
+      </c>
+      <c r="AX15" s="30">
+        <v>0.00015636878497964</v>
       </c>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
@@ -2127,16 +2171,26 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AE16" s="30">
+        <v>458359.01923226</v>
+      </c>
+      <c r="AF16" s="30">
+        <v>32.420954072734</v>
+      </c>
+      <c r="AG16" s="30">
+        <v>827163.58105645</v>
+      </c>
+      <c r="AH16" s="30">
+        <v>27.090779429898</v>
+      </c>
+      <c r="AI16" s="30">
+        <v>1290168.5868918</v>
+      </c>
+      <c r="AJ16" s="30">
+        <v>28.881718109891</v>
+      </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -2145,25 +2199,25 @@
       <c r="AP16" s="2"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS16" s="31">
-        <v>1.3347963309396</v>
-      </c>
-      <c r="AT16" s="31">
-        <v>0.00052870596631441</v>
-      </c>
-      <c r="AU16" s="31">
-        <v>1.2637726347154</v>
-      </c>
-      <c r="AV16" s="31">
-        <v>4.2638332333986E-5</v>
-      </c>
-      <c r="AW16" s="31">
-        <v>1.2992844828275</v>
-      </c>
-      <c r="AX16" s="31">
-        <v>0.0002856721493242</v>
+        <v>31</v>
+      </c>
+      <c r="AS16" s="30">
+        <v>1.3343754450546</v>
+      </c>
+      <c r="AT16" s="30">
+        <v>0.00052152709891325</v>
+      </c>
+      <c r="AU16" s="30">
+        <v>1.264056810097</v>
+      </c>
+      <c r="AV16" s="30">
+        <v>4.288380860253E-5</v>
+      </c>
+      <c r="AW16" s="30">
+        <v>1.2992161275758</v>
+      </c>
+      <c r="AX16" s="30">
+        <v>0.00028220545375789</v>
       </c>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
